--- a/src/main/java/com/product/qa/testdata/TestData2.xlsx
+++ b/src/main/java/com/product/qa/testdata/TestData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rushikesh Chauhan\Documents\MZProduct\MZ\src\main\java\com\product\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A8B48-88EF-4D43-901F-DE18F3246510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51F9C7-5348-4047-860D-0F248B64CB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E393653E-01A0-4D86-96A0-D2DB291C0F1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E393653E-01A0-4D86-96A0-D2DB291C0F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
